--- a/td_toolkits_v3/opticals/tests/test_files/rdl_cellgap/cell_gap_RDL.xlsx
+++ b/td_toolkits_v3/opticals/tests/test_files/rdl_cellgap/cell_gap_RDL.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="upload" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
